--- a/Excel/material.xlsx
+++ b/Excel/material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/Desktop/school-uni-bd6/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BC959E-691D-45B0-ABC0-1A3DC52A440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66245008-75BC-F34C-A19B-0A66F88A519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{FC963DD9-C133-4E20-966A-617275F2CC34}"/>
+    <workbookView xWindow="13120" yWindow="3840" windowWidth="21600" windowHeight="11380" xr2:uid="{FC963DD9-C133-4E20-966A-617275F2CC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>product_id</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>price_per_cubic_meter</t>
+    <t>volume_price</t>
   </si>
 </sst>
 </file>
@@ -395,23 +392,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD679657-62B3-4AD1-9A30-733C6339B828}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
